--- a/documents/02_機能一覧_E2.xlsx
+++ b/documents/02_機能一覧_E2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="13_ncr:1_{D95A49AD-B3C8-44CA-A7AC-0C55C28AC17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965B5CDF-37CB-4A26-BD8C-13A059DC3AE0}"/>
+  <xr:revisionPtr revIDLastSave="884" documentId="13_ncr:1_{D95A49AD-B3C8-44CA-A7AC-0C55C28AC17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD60E491-BE59-4670-9C75-291DEE10A6FA}"/>
   <bookViews>
     <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="111">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -78,10 +78,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>岸本</t>
-  </si>
-  <si>
-    <t>出来れば追加の機能</t>
+    <t>杉尾</t>
+  </si>
+  <si>
+    <t>余裕があれば実装</t>
   </si>
   <si>
     <t>更新日</t>
@@ -209,28 +209,25 @@
     <t>ホームページ</t>
   </si>
   <si>
+    <t>中村</t>
+  </si>
+  <si>
     <t>HomeServlet</t>
   </si>
   <si>
     <t>商品情報の登録</t>
   </si>
   <si>
-    <t>エラーチェックを行い、問題なければデータ登録を行う。</t>
+    <t>エラーチェックを行い、問題なければデータを登録する</t>
   </si>
   <si>
     <t>商品の一覧表示</t>
   </si>
   <si>
-    <t>商品の詳細情報表示</t>
-  </si>
-  <si>
-    <t>商品をクリックして表示</t>
-  </si>
-  <si>
     <t>商品情報の編集</t>
   </si>
   <si>
-    <t>ボタン押下によって商品情報表示画面から編集モードに切り替え</t>
+    <t>エラーチェックを行い、問題なければデータを更新する</t>
   </si>
   <si>
     <t>QRコード表示</t>
@@ -245,6 +242,9 @@
     <t>OrderServlet</t>
   </si>
   <si>
+    <t>岸本</t>
+  </si>
+  <si>
     <t>注文一覧表示</t>
   </si>
   <si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>自動で完売処理</t>
-  </si>
-  <si>
-    <t>最優先</t>
   </si>
   <si>
     <t>ファンクション
@@ -321,7 +318,7 @@
     <t>inputに入力</t>
   </si>
   <si>
-    <t>機能一覧（客用）</t>
+    <t>機能一覧表（客用）</t>
   </si>
   <si>
     <t>モバイルオーダー
@@ -335,6 +332,12 @@
 商品詳細</t>
   </si>
   <si>
+    <t>渕田</t>
+  </si>
+  <si>
+    <t>商品の詳細情報表示</t>
+  </si>
+  <si>
     <t>商品を選択して表示</t>
   </si>
   <si>
@@ -375,8 +378,7 @@
     <t>カート</t>
   </si>
   <si>
-    <t>選択した商品
-＆カスタマイズ内容の一覧表示</t>
+    <t>選択商品の一覧表示</t>
   </si>
   <si>
     <t>HandedServlet</t>
@@ -394,7 +396,7 @@
     <t>支払い</t>
   </si>
   <si>
-    <t>支払額の表示</t>
+    <t>支払額と注文番号の表示</t>
   </si>
   <si>
     <t>支払フラグがtrueになったら呼び出し待ちメッセージ表示</t>
@@ -403,7 +405,7 @@
     <t>呼び出し待ち</t>
   </si>
   <si>
-    <t>注文番号の表示</t>
+    <t>商品の準備状況を表示</t>
   </si>
   <si>
     <t>完成フラグがtrueになったら呼び出し中メッセージ表示</t>
@@ -431,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,34 +472,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,8 +493,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,19 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,16 +1246,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
@@ -1321,28 +1288,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
@@ -1354,68 +1420,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1426,149 +1450,92 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,19 +1841,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="96" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
@@ -1903,10 +1870,10 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="103"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="3" t="s">
@@ -1918,32 +1885,31 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="52">
         <v>45817</v>
       </c>
-      <c r="I3" s="103"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="2:9">
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="40"/>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="104">
-        <v>45818</v>
-      </c>
-      <c r="I5" s="103"/>
+      <c r="H5" s="52">
+        <v>45834</v>
+      </c>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="2:9" ht="21">
       <c r="B6" s="4" t="s">
@@ -1954,7 +1920,7 @@
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="97" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1977,174 +1943,176 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="11">
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="56" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27">
-      <c r="B9" s="15">
+      <c r="B9" s="57">
         <v>2</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="15">
+      <c r="B10" s="57">
         <v>3</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27">
-      <c r="B11" s="120">
+      <c r="B11" s="57">
         <v>4</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="57" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="27">
-      <c r="B12" s="120">
+      <c r="B12" s="57">
         <v>5</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="58" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="120">
+      <c r="B13" s="57">
         <v>6</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="58" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="27">
-      <c r="B14" s="121">
+      <c r="B14" s="66">
         <v>7</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="56">
+      <c r="B15" s="37">
         <v>8</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>23</v>
@@ -2160,19 +2128,21 @@
       <c r="B16" s="15">
         <v>9</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>25</v>
@@ -2182,13 +2152,15 @@
       <c r="B17" s="15">
         <v>10</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>23</v>
@@ -2200,151 +2172,165 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="27">
       <c r="B18" s="15">
-        <v>11</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="66">
+        <v>13</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="E19" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27">
-      <c r="B19" s="15">
-        <v>12</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="37">
+        <v>14</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27">
+      <c r="B21" s="15">
+        <v>15</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="57">
+        <v>16</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="B23" s="15">
+        <v>17</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="64">
-        <v>13</v>
-      </c>
-      <c r="C20" s="110"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="56">
-        <v>14</v>
-      </c>
-      <c r="C21" s="105" t="s">
+      <c r="H23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="15">
+        <v>18</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27">
-      <c r="B22" s="15">
-        <v>15</v>
-      </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="15">
-        <v>16</v>
-      </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
-      <c r="B24" s="15">
-        <v>17</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>26</v>
@@ -2357,560 +2343,526 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="15">
-        <v>18</v>
-      </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="43">
+        <v>19</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="64">
-        <v>19</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="61" t="s">
+      <c r="B26" s="70">
+        <v>20</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="119">
-        <v>20</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="43" t="s">
+      <c r="H26" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27">
+      <c r="B27" s="57">
+        <v>21</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27">
-      <c r="B28" s="120">
+      <c r="H27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="66">
+        <v>22</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="70">
+        <v>23</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="50"/>
+      <c r="B30" s="57">
+        <v>24</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="50"/>
+      <c r="B31" s="66">
+        <v>25</v>
+      </c>
+      <c r="C31" s="106"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="17"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="2:9" s="17" customFormat="1" ht="21">
+      <c r="B33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:9" ht="27">
+      <c r="B34" s="28">
+        <v>26</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="27" customHeight="1">
+      <c r="B35" s="44">
+        <v>27</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="66">
+        <v>28</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="27">
+      <c r="B37" s="86">
+        <v>29</v>
+      </c>
+      <c r="C37" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15">
+      <c r="B38" s="91">
+        <v>30</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="27">
+      <c r="B39" s="86">
+        <v>31</v>
+      </c>
+      <c r="C39" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="35">
+        <v>32</v>
+      </c>
+      <c r="C40" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="87">
+        <v>33</v>
+      </c>
+      <c r="C41" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="27">
+      <c r="B42" s="44">
+        <v>34</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="27">
+      <c r="B43" s="11">
+        <v>35</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="66">
+        <v>36</v>
+      </c>
+      <c r="C44" s="117"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="27">
+      <c r="B45" s="45">
+        <v>37</v>
+      </c>
+      <c r="C45" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="46">
+        <v>38</v>
+      </c>
+      <c r="C46" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="121">
-        <v>22</v>
-      </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="119">
+      <c r="F46" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="100"/>
-      <c r="B31" s="120">
+      <c r="H46" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="100"/>
-      <c r="B32" s="121">
-        <v>25</v>
-      </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="17"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="17"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="17"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="2:9" s="17" customFormat="1">
-      <c r="C37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="2:9" s="17" customFormat="1" ht="21">
-      <c r="B38" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="2:9" ht="27">
-      <c r="B39" s="30">
-        <v>26</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="27" customHeight="1">
-      <c r="B40" s="67">
-        <v>27</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="121">
-        <v>28</v>
-      </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="40.5">
-      <c r="B42" s="116">
-        <v>29</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="27">
-      <c r="B43" s="69">
-        <v>30</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="27">
-      <c r="B44" s="68">
-        <v>31</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="40.5">
-      <c r="B45" s="37">
-        <v>32</v>
-      </c>
-      <c r="C45" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="117">
-        <v>33</v>
-      </c>
-      <c r="C46" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="27">
-      <c r="B47" s="67">
-        <v>34</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="27">
-      <c r="B48" s="11">
-        <v>35</v>
-      </c>
-      <c r="C48" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="121">
-        <v>36</v>
-      </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="27">
-      <c r="B50" s="68">
-        <v>37</v>
-      </c>
-      <c r="C50" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="69">
-        <v>38</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="33" t="s">
+      <c r="I46" s="31" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C8:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
